--- a/pred_ohlcv/54_21/2020-01-16 MCO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 MCO ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>-1967.71932569</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-1967.71932569</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-2349.33382569</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-2349.33382569</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-2334.33382569</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-2139.07312569</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-2139.75852569</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-2169.75852569</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-2160.63662569</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-2191.71092569</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-2191.71092569</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-2191.71092569</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-2191.71092569</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-2183.27362569</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-2183.27362569</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-2138.27362569</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-2138.27362569</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-2138.27362569</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-2050.25652569</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-2294.35312569</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-2294.35312569</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-2257.26392569</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-2240.26392569</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-2240.26392569</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-1517.87352569</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1828.48362569</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-2302.71462569</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-2334.17552569</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-2334.17552569</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-2521.99632569</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-2630.91502569</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-2642.013330619999</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-2589.613430619999</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-2589.314430619999</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-2589.314430619999</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-2574.314330619999</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-2589.191530619999</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-2589.448030619998</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-2645.828230619999</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-2644.828230619999</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-2654.870830619999</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-2673.133730619999</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-2561.110730619999</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-2561.110730619999</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-2561.509730619999</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-2518.722930619999</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-2518.722930619999</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-2527.368530619999</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-2604.642830619999</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-2594.642830619999</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-2530.473630619999</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-2656.865630619999</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-2299.766130619999</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-16 MCO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 MCO ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>-1967.71932569</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-1967.71932569</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-2349.33382569</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-2349.33382569</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-2334.33382569</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-2139.07312569</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-2139.75852569</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-2169.75852569</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-2160.63662569</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-2191.71092569</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-2191.71092569</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-2191.71092569</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-2191.71092569</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-2183.27362569</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-2183.27362569</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-2138.27362569</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-2138.27362569</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-2138.27362569</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-2050.25652569</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-2294.35312569</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-2294.35312569</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-2257.26392569</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-2240.26392569</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-2240.26392569</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-1517.87352569</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1828.48362569</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-2302.71462569</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-2334.17552569</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-3539.67232569</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-2642.013330619999</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-2728.164930619999</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-2589.613430619999</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-2598.576030619999</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-2598.576030619999</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-2589.314430619999</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-2589.314430619999</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-2589.314430619999</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-2589.314430619999</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-2589.314430619999</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-2589.314430619999</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-2589.314430619999</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-2589.314430619999</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-2589.191530619999</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-2589.191530619999</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-2589.448030619998</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-2645.828230619999</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-2644.828230619999</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-2654.870830619999</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-2673.133730619999</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-2561.110730619999</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-2561.110730619999</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-2561.509730619999</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-2518.722930619999</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-2518.722930619999</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-2518.722930619999</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-2526.022930619999</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-2527.368530619999</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-2604.642830619999</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-2594.642830619999</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-2530.473630619999</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-2656.865630619999</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-2299.766130619999</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
